--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="67">
   <si>
     <t>Employee</t>
   </si>
@@ -38,43 +38,181 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>Malin Kraft</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Christian Thorstensson</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>Marcus Eriksson</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Emma Blomqvist</t>
+  </si>
+  <si>
+    <t>penis</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Jennie Hansson</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>Emelie Ojersson</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Maria Persson</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Linda Lindstrom</t>
+  </si>
+  <si>
+    <t>Ninwa Jusef</t>
+  </si>
+  <si>
+    <t>Natalie Leis</t>
+  </si>
+  <si>
+    <t>Petra Eriksson</t>
+  </si>
+  <si>
+    <t>Sofia Kalabic</t>
+  </si>
+  <si>
+    <t>Sara Olson</t>
+  </si>
+  <si>
+    <t>Gabriella Suren</t>
+  </si>
+  <si>
+    <t>Maximilian Salen</t>
+  </si>
+  <si>
+    <t>Daniella Yilmaz</t>
+  </si>
+  <si>
+    <t>Disa Nilsson</t>
+  </si>
+  <si>
+    <t>Jonna Grevle</t>
+  </si>
+  <si>
+    <t>Viktoria Carshaw</t>
+  </si>
+  <si>
+    <t>Olivia Schultzberg</t>
+  </si>
+  <si>
+    <t>Amanda Hessfelt</t>
+  </si>
+  <si>
+    <t>Johanna Almqvist</t>
+  </si>
+  <si>
+    <t>Vikorija Skorupskyte</t>
+  </si>
+  <si>
+    <t>Andrea-Monica Riscu</t>
+  </si>
+  <si>
+    <t>Alicia Enstedt</t>
+  </si>
+  <si>
+    <t>Olivia Niklasson</t>
+  </si>
+  <si>
+    <t>Moa Larsson</t>
+  </si>
+  <si>
+    <t>Tanya Singh</t>
+  </si>
+  <si>
+    <t>Vanja Faxell</t>
+  </si>
+  <si>
+    <t>Elsa Ott</t>
+  </si>
+  <si>
+    <t>Madelene Hjelman</t>
+  </si>
+  <si>
+    <t>Diana Jaghobi</t>
+  </si>
+  <si>
+    <t>Emelie Heale</t>
+  </si>
+  <si>
+    <t>Elin Gustafsson</t>
+  </si>
+  <si>
+    <t>Lina Stromberg</t>
+  </si>
+  <si>
+    <t>Andrea Thorin</t>
+  </si>
+  <si>
+    <t>Emma Degerstam</t>
+  </si>
+  <si>
+    <t>Elly Yarali</t>
+  </si>
+  <si>
+    <t>Josefina Wiklund</t>
+  </si>
+  <si>
+    <t>Emmie Hansson</t>
   </si>
 </sst>
 </file>
@@ -171,7 +309,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -185,22 +323,1010 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
